--- a/tempi maps sampling order.xlsx
+++ b/tempi maps sampling order.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\Optmised-sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B96A1A9-0C70-409A-B68F-D113D517015A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9682446D-F6C2-4B3C-9A8D-D01EF4EBCD6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/tempi maps sampling order.xlsx
+++ b/tempi maps sampling order.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\Optmised-sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9682446D-F6C2-4B3C-9A8D-D01EF4EBCD6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C640298-429C-4DCE-B593-FC02458AC6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1019,6 +1019,11 @@
       </c>
       <c r="N16" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K18">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -1029,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EAC360-643D-42E8-B417-34978E184710}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1590,6 +1595,13 @@
       <c r="N16" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="19" spans="11:15" x14ac:dyDescent="0.35">
+      <c r="K19">
+        <v>401</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="O19" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
